--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cooper.hanley\Desktop\Linear_Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cooper.hanley\Documents\GitHub\LinearSensorCalibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337D6A38-0424-4E8E-BD65-54AAB7B9555C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8B1D1D-FE41-49B6-BEF5-91414AFD89F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="2352" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="21600" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
     <t>STD</t>
   </si>
   <si>
-    <t>xValue</t>
+    <t>sensorValue</t>
   </si>
   <si>
-    <t>sensorValue</t>
+    <t>yValue</t>
   </si>
 </sst>
 </file>
@@ -383,22 +383,22 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B11" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
